--- a/aula-trancamento.xlsx
+++ b/aula-trancamento.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Troca de arquivos\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57386F6B-4ADF-4DCE-83EC-86D6C5164101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Situação inicial" sheetId="4" r:id="rId1"/>
     <sheet name="Resultado final" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -82,10 +94,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -217,7 +229,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -229,13 +241,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,23 +566,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="4" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="16" width="9.140625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.26953125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="20.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="16" width="9.1796875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="23" x14ac:dyDescent="0.65">
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
@@ -579,7 +593,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,8 +602,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -600,10 +614,10 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -612,10 +626,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
@@ -632,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
@@ -642,11 +656,17 @@
       <c r="D10" s="13">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="14">
+        <f>(D10-C10)*24</f>
+        <v>2.4166666666666661</v>
+      </c>
+      <c r="F10" s="15">
+        <f>E10*$C$7</f>
+        <v>7.2499999999999982</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
@@ -656,10 +676,16 @@
       <c r="D11" s="13">
         <v>0.76736111111111116</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="14">
+        <f t="shared" ref="E11:E17" si="0">(D11-C11)*24</f>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" ref="F11:F17" si="1">E11*$C$7</f>
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
@@ -669,113 +695,146 @@
       <c r="D12" s="13">
         <v>0.75</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="20.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="20.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="20.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="4" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.26953125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="20.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="12" width="9.1796875" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="16" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4" hidden="1"/>
+    <col min="17" max="16384" width="9.1796875" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="23" x14ac:dyDescent="0.65">
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
@@ -784,7 +843,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -793,8 +852,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -805,10 +864,10 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -817,10 +876,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
@@ -837,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
@@ -857,7 +916,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
@@ -876,7 +935,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
@@ -895,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -908,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -921,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -934,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -947,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -960,51 +1019,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="20.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="20.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="20.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
